--- a/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
+++ b/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16F45BB-A251-4A2D-B9F5-7163B627A4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAF5A61-BA48-45FC-872C-A4011AFC0C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6612" yWindow="696" windowWidth="16872" windowHeight="11544" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog_old" sheetId="1" state="hidden" r:id="rId1"/>
@@ -4134,7 +4134,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="G23:M23"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B1" s="61">
         <f ca="1">TODAY()+6</f>
-        <v>45491</v>
+        <v>45494</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B4">
         <f ca="1">B2-B1</f>
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="B5" s="64">
         <f ca="1">B4-B3</f>
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B7" s="62">
         <f ca="1">B5/B6</f>
-        <v>1.9230769230769231</v>
+        <v>1.6923076923076923</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
+++ b/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAF5A61-BA48-45FC-872C-A4011AFC0C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04937564-88A3-4A86-9B3C-F6B7DB217CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6612" yWindow="696" windowWidth="16872" windowHeight="11544" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog_old" sheetId="1" state="hidden" r:id="rId1"/>
@@ -4134,7 +4134,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23:M23"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B23" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C23" s="53"/>
       <c r="D23" s="26" t="s">
@@ -4954,7 +4954,7 @@
         <v>129</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>171</v>
@@ -6242,16 +6242,16 @@
       </c>
       <c r="C7" s="60">
         <f>SUMIF(Backlog!$D:$D,sintético!P7,Backlog!$B:$B)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="F7" s="22" t="str">
         <f t="shared" ref="F7:F10" si="3">IF(AND($E7&gt;$E$4,$E7&lt;F$4),"DENTRO",IF($E7&gt;=F$4,"OK","FORA"))</f>
-        <v>FORA</v>
+        <v>DENTRO</v>
       </c>
       <c r="G7" s="22" t="str">
         <f t="shared" si="1"/>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B1" s="61">
         <f ca="1">TODAY()+6</f>
-        <v>45494</v>
+        <v>45495</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B4">
         <f ca="1">B2-B1</f>
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="B5" s="64">
         <f ca="1">B4-B3</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B7" s="62">
         <f ca="1">B5/B6</f>
-        <v>1.6923076923076923</v>
+        <v>1.6153846153846154</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
+++ b/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04937564-88A3-4A86-9B3C-F6B7DB217CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A93195-9339-4544-BAC4-E350BECEC1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog_old" sheetId="1" state="hidden" r:id="rId1"/>
@@ -4134,7 +4134,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15:M16"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B21" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C21" s="53"/>
       <c r="D21" s="26" t="s">
@@ -4857,7 +4857,7 @@
         <v>94</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21" s="28" t="s">
         <v>172</v>
@@ -4878,7 +4878,7 @@
       <c r="P21" s="25"/>
       <c r="Q21" s="32">
         <f>COUNTIF(Q8,H:H)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="59"/>
     </row>
@@ -6242,20 +6242,20 @@
       </c>
       <c r="C7" s="60">
         <f>SUMIF(Backlog!$D:$D,sintético!P7,Backlog!$B:$B)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F7" s="22" t="str">
         <f t="shared" ref="F7:F10" si="3">IF(AND($E7&gt;$E$4,$E7&lt;F$4),"DENTRO",IF($E7&gt;=F$4,"OK","FORA"))</f>
-        <v>DENTRO</v>
+        <v>OK</v>
       </c>
       <c r="G7" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>FORA</v>
+        <v>DENTRO</v>
       </c>
       <c r="H7" s="22" t="str">
         <f t="shared" si="2"/>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B1" s="61">
         <f ca="1">TODAY()+6</f>
-        <v>45495</v>
+        <v>45496</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B4">
         <f ca="1">B2-B1</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="B5" s="64">
         <f ca="1">B4-B3</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B7" s="62">
         <f ca="1">B5/B6</f>
-        <v>1.6153846153846154</v>
+        <v>1.5384615384615385</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
+++ b/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A93195-9339-4544-BAC4-E350BECEC1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1158AF7-F908-42A7-89AC-46C9D1A87873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog_old" sheetId="1" state="hidden" r:id="rId1"/>
@@ -4134,7 +4134,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
@@ -4442,7 +4442,7 @@
       </c>
       <c r="B12" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="26" t="s">
@@ -4458,7 +4458,7 @@
         <v>93</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I12" s="28" t="s">
         <v>170</v>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="B19" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="26" t="s">
@@ -4769,7 +4769,7 @@
         <v>160</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>171</v>
@@ -5970,7 +5970,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H10:H40 H45</xm:sqref>
+          <xm:sqref>H45 H10:H40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6180,12 +6180,12 @@
       </c>
       <c r="C6" s="60">
         <f>SUMIF(Backlog!$D:$D,sintético!P6,Backlog!$B:$B)</f>
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="11">
         <f t="shared" ref="E6:E10" si="0">C6/B6</f>
-        <v>0.68181818181818177</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="F6" s="39" t="str">
         <f>IF(AND($E6&gt;$E$4,$E6&lt;F$4),"DENTRO",IF($E6&gt;=F$4,"OK","FORA"))</f>
@@ -6213,15 +6213,15 @@
       </c>
       <c r="L6" s="39" t="str">
         <f t="shared" si="2"/>
-        <v>DENTRO</v>
+        <v>OK</v>
       </c>
       <c r="M6" s="39" t="str">
         <f t="shared" si="2"/>
-        <v>FORA</v>
+        <v>OK</v>
       </c>
       <c r="N6" s="39" t="str">
         <f>IF(AND(M6="OK",$E6&lt;N$4,$E6&gt;M$4),"DENTRO",IF($E6&gt;=N$4,"OK","FORA"))</f>
-        <v>FORA</v>
+        <v>DENTRO</v>
       </c>
       <c r="O6" s="39" t="str">
         <f t="shared" si="2"/>

--- a/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
+++ b/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1158AF7-F908-42A7-89AC-46C9D1A87873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A2B0BE-7188-4324-BD4D-A1D56605AAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4132,9 +4132,9 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
+      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B24" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C24" s="53"/>
       <c r="D24" s="26" t="s">
@@ -5000,7 +5000,7 @@
         <v>130</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>171</v>
@@ -5970,7 +5970,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H45 H10:H40</xm:sqref>
+          <xm:sqref>H10:H40 H45</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6242,12 +6242,12 @@
       </c>
       <c r="C7" s="60">
         <f>SUMIF(Backlog!$D:$D,sintético!P7,Backlog!$B:$B)</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="F7" s="22" t="str">
         <f t="shared" ref="F7:F10" si="3">IF(AND($E7&gt;$E$4,$E7&lt;F$4),"DENTRO",IF($E7&gt;=F$4,"OK","FORA"))</f>
@@ -6255,11 +6255,11 @@
       </c>
       <c r="G7" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>DENTRO</v>
+        <v>OK</v>
       </c>
       <c r="H7" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>FORA</v>
+        <v>DENTRO</v>
       </c>
       <c r="I7" s="22" t="str">
         <f>IF(AND(H7="OK",$E7&lt;I$4,$E7&gt;H$4),"DENTRO",IF($E7&gt;=I$4,"OK","FORA"))</f>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B1" s="61">
         <f ca="1">TODAY()+6</f>
-        <v>45496</v>
+        <v>45497</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B4">
         <f ca="1">B2-B1</f>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="B5" s="64">
         <f ca="1">B4-B3</f>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B7" s="62">
         <f ca="1">B5/B6</f>
-        <v>1.5384615384615385</v>
+        <v>1.4615384615384615</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
+++ b/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A2B0BE-7188-4324-BD4D-A1D56605AAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010A51BC-102C-47C1-9261-52BDD5987D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4134,7 +4134,7 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="Q27" sqref="Q27"/>
+      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
@@ -4577,7 +4577,7 @@
       </c>
       <c r="B15" s="58">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C15" s="53"/>
       <c r="D15" s="26" t="s">
@@ -4593,7 +4593,7 @@
         <v>156</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>171</v>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="B16" s="58">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C16" s="53"/>
       <c r="D16" s="26" t="s">
@@ -4637,7 +4637,7 @@
         <v>157</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" s="28" t="s">
         <v>171</v>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="B23" s="58">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C23" s="53"/>
       <c r="D23" s="26" t="s">
@@ -4954,7 +4954,7 @@
         <v>129</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" s="28" t="s">
         <v>171</v>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B24" s="58">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C24" s="53"/>
       <c r="D24" s="26" t="s">
@@ -5000,7 +5000,7 @@
         <v>130</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" s="28" t="s">
         <v>171</v>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="B25" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="53"/>
       <c r="D25" s="26" t="s">
@@ -5046,7 +5046,7 @@
         <v>131</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>171</v>
@@ -5970,7 +5970,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H10:H40 H45</xm:sqref>
+          <xm:sqref>H45 H10:H40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6180,12 +6180,12 @@
       </c>
       <c r="C6" s="60">
         <f>SUMIF(Backlog!$D:$D,sintético!P6,Backlog!$B:$B)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="11">
         <f t="shared" ref="E6:E10" si="0">C6/B6</f>
-        <v>0.81818181818181823</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="F6" s="39" t="str">
         <f>IF(AND($E6&gt;$E$4,$E6&lt;F$4),"DENTRO",IF($E6&gt;=F$4,"OK","FORA"))</f>
@@ -6221,11 +6221,11 @@
       </c>
       <c r="N6" s="39" t="str">
         <f>IF(AND(M6="OK",$E6&lt;N$4,$E6&gt;M$4),"DENTRO",IF($E6&gt;=N$4,"OK","FORA"))</f>
-        <v>DENTRO</v>
+        <v>OK</v>
       </c>
       <c r="O6" s="39" t="str">
         <f t="shared" si="2"/>
-        <v>FORA</v>
+        <v>DENTRO</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>103</v>
@@ -6242,12 +6242,12 @@
       </c>
       <c r="C7" s="60">
         <f>SUMIF(Backlog!$D:$D,sintético!P7,Backlog!$B:$B)</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="F7" s="22" t="str">
         <f t="shared" ref="F7:F10" si="3">IF(AND($E7&gt;$E$4,$E7&lt;F$4),"DENTRO",IF($E7&gt;=F$4,"OK","FORA"))</f>
@@ -6259,15 +6259,15 @@
       </c>
       <c r="H7" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>DENTRO</v>
+        <v>OK</v>
       </c>
       <c r="I7" s="22" t="str">
         <f>IF(AND(H7="OK",$E7&lt;I$4,$E7&gt;H$4),"DENTRO",IF($E7&gt;=I$4,"OK","FORA"))</f>
-        <v>FORA</v>
+        <v>OK</v>
       </c>
       <c r="J7" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>FORA</v>
+        <v>DENTRO</v>
       </c>
       <c r="K7" s="22" t="str">
         <f t="shared" si="2"/>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B1" s="61">
         <f ca="1">TODAY()+6</f>
-        <v>45497</v>
+        <v>45501</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B4">
         <f ca="1">B2-B1</f>
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7266,7 +7266,7 @@
       </c>
       <c r="B5" s="64">
         <f ca="1">B4-B3</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B7" s="62">
         <f ca="1">B5/B6</f>
-        <v>1.4615384615384615</v>
+        <v>1.1538461538461537</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
+++ b/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\int.matheus\Desktop\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.10.228.100\mis_dados\04 - PROJETOS\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010A51BC-102C-47C1-9261-52BDD5987D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF00F171-94B4-4912-B898-440AD15858DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="174">
   <si>
     <t>ETAPA</t>
   </si>
@@ -703,6 +703,9 @@
   </si>
   <si>
     <t>DBA / DA</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -4132,9 +4135,9 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
@@ -4273,7 +4276,9 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="7.5" customHeight="1">
-      <c r="D8" s="51"/>
+      <c r="D8" s="51" t="s">
+        <v>173</v>
+      </c>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
       <c r="G8" s="51"/>
@@ -5970,7 +5975,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H45 H10:H40</xm:sqref>
+          <xm:sqref>H10:H40 H45</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7232,7 +7237,7 @@
       </c>
       <c r="B1" s="61">
         <f ca="1">TODAY()+6</f>
-        <v>45501</v>
+        <v>45502</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7257,7 +7262,7 @@
       </c>
       <c r="B4">
         <f ca="1">B2-B1</f>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7266,7 +7271,7 @@
       </c>
       <c r="B5" s="64">
         <f ca="1">B4-B3</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7283,7 +7288,7 @@
       </c>
       <c r="B7" s="62">
         <f ca="1">B5/B6</f>
-        <v>1.1538461538461537</v>
+        <v>1.0769230769230769</v>
       </c>
     </row>
     <row r="9" spans="1:2">

--- a/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
+++ b/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.10.228.100\mis_dados\04 - PROJETOS\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF00F171-94B4-4912-B898-440AD15858DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04255872-5E4B-49D9-99F5-8BDEB628CEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1870,7 +1870,7 @@
                   <c:v>45463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45516</c:v>
+                  <c:v>45510</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2089,10 +2089,10 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4134,10 +4134,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF5B0BB-9507-4135-B959-50A7099FB851}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
@@ -4148,7 +4148,7 @@
     <col min="4" max="4" width="6.109375" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.44140625" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="99.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.88671875" style="25" customWidth="1"/>
     <col min="8" max="8" width="11.21875" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.77734375" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.109375" style="25" bestFit="1" customWidth="1"/>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="B25" s="58">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C25" s="53"/>
       <c r="D25" s="26" t="s">
@@ -5051,7 +5051,7 @@
         <v>131</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" s="28" t="s">
         <v>171</v>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B26" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C26" s="53"/>
       <c r="D26" s="26" t="s">
@@ -5097,7 +5097,7 @@
         <v>132</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>171</v>
@@ -5202,11 +5202,11 @@
       <c r="L28" s="73"/>
       <c r="M28" s="70">
         <f>M36</f>
-        <v>45534</v>
+        <v>45525</v>
       </c>
       <c r="N28" s="71">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="O28" s="71"/>
       <c r="P28" s="25"/>
@@ -5242,14 +5242,14 @@
         <v>171</v>
       </c>
       <c r="J29" s="63">
-        <f>M27+1</f>
-        <v>45505</v>
+        <f>J27</f>
+        <v>45503</v>
       </c>
       <c r="K29" s="54"/>
       <c r="L29" s="56"/>
       <c r="M29" s="54">
         <f>J29+1</f>
-        <v>45506</v>
+        <v>45504</v>
       </c>
       <c r="N29" s="38">
         <f t="shared" si="2"/>
@@ -5289,18 +5289,18 @@
         <v>171</v>
       </c>
       <c r="J30" s="54">
-        <f>M29+3</f>
-        <v>45509</v>
+        <f>M29+1</f>
+        <v>45505</v>
       </c>
       <c r="K30" s="54"/>
       <c r="L30" s="56"/>
       <c r="M30" s="54">
         <f>J30+4</f>
-        <v>45513</v>
+        <v>45509</v>
       </c>
       <c r="N30" s="38">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O30" s="38"/>
       <c r="P30" s="25"/>
@@ -5336,18 +5336,18 @@
         <v>171</v>
       </c>
       <c r="J31" s="54">
-        <f>M30+3</f>
-        <v>45516</v>
+        <f>M30+1</f>
+        <v>45510</v>
       </c>
       <c r="K31" s="54"/>
       <c r="L31" s="56"/>
       <c r="M31" s="54">
-        <f>J31+1</f>
-        <v>45517</v>
+        <f>J31+10</f>
+        <v>45520</v>
       </c>
       <c r="N31" s="38">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="O31" s="38"/>
       <c r="P31" s="25"/>
@@ -5383,14 +5383,14 @@
         <v>171</v>
       </c>
       <c r="J32" s="54">
-        <f>M31+1</f>
-        <v>45518</v>
+        <f>J31</f>
+        <v>45510</v>
       </c>
       <c r="K32" s="54"/>
       <c r="L32" s="56"/>
       <c r="M32" s="54">
         <f>J32+2</f>
-        <v>45520</v>
+        <v>45512</v>
       </c>
       <c r="N32" s="38">
         <f t="shared" si="2"/>
@@ -5430,14 +5430,14 @@
         <v>171</v>
       </c>
       <c r="J33" s="54">
-        <f>M32+3</f>
-        <v>45523</v>
+        <f>M32+1</f>
+        <v>45513</v>
       </c>
       <c r="K33" s="54"/>
       <c r="L33" s="56"/>
       <c r="M33" s="54">
-        <f>J33+1</f>
-        <v>45524</v>
+        <f>J33+3</f>
+        <v>45516</v>
       </c>
       <c r="N33" s="38">
         <f t="shared" si="2"/>
@@ -5478,13 +5478,13 @@
       </c>
       <c r="J34" s="54">
         <f>M33+1</f>
-        <v>45525</v>
+        <v>45517</v>
       </c>
       <c r="K34" s="54"/>
       <c r="L34" s="56"/>
       <c r="M34" s="54">
         <f>J34+2</f>
-        <v>45527</v>
+        <v>45519</v>
       </c>
       <c r="N34" s="38">
         <f t="shared" si="2"/>
@@ -5524,18 +5524,18 @@
         <v>171</v>
       </c>
       <c r="J35" s="54">
-        <f>M34+3</f>
-        <v>45530</v>
+        <f>M34+1</f>
+        <v>45520</v>
       </c>
       <c r="K35" s="54"/>
       <c r="L35" s="56"/>
       <c r="M35" s="54">
-        <f>J35+2</f>
-        <v>45532</v>
+        <f>J35+3</f>
+        <v>45523</v>
       </c>
       <c r="N35" s="38">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O35" s="38"/>
       <c r="P35" s="25"/>
@@ -5572,13 +5572,13 @@
       </c>
       <c r="J36" s="54">
         <f>M35+1</f>
-        <v>45533</v>
+        <v>45524</v>
       </c>
       <c r="K36" s="54"/>
       <c r="L36" s="56"/>
       <c r="M36" s="63">
         <f>J36+1</f>
-        <v>45534</v>
+        <v>45525</v>
       </c>
       <c r="N36" s="38">
         <f t="shared" si="2"/>
@@ -5619,17 +5619,17 @@
       </c>
       <c r="J37" s="54">
         <f>M36</f>
-        <v>45534</v>
+        <v>45525</v>
       </c>
       <c r="K37" s="54"/>
       <c r="L37" s="54"/>
       <c r="M37" s="54">
-        <f>J37+10</f>
-        <v>45544</v>
+        <f>J37+9</f>
+        <v>45534</v>
       </c>
       <c r="N37" s="38">
         <f>IFERROR(NETWORKDAYS(J37,M37),0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O37" s="38"/>
       <c r="P37" s="25"/>
@@ -5666,17 +5666,17 @@
       </c>
       <c r="J38" s="54">
         <f>J37</f>
-        <v>45534</v>
+        <v>45525</v>
       </c>
       <c r="K38" s="54"/>
       <c r="L38" s="54"/>
       <c r="M38" s="54">
-        <f>J38+5</f>
-        <v>45539</v>
+        <f>J38+7</f>
+        <v>45532</v>
       </c>
       <c r="N38" s="38">
         <f>IFERROR(NETWORKDAYS(J38,M38),0)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O38" s="38"/>
       <c r="P38" s="59"/>
@@ -5711,18 +5711,18 @@
         <v>172</v>
       </c>
       <c r="J39" s="54">
-        <f>M37</f>
-        <v>45544</v>
+        <f>J38+5</f>
+        <v>45530</v>
       </c>
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54">
-        <f>J39+1</f>
-        <v>45545</v>
+        <f>J39+4</f>
+        <v>45534</v>
       </c>
       <c r="N39" s="38">
         <f>IFERROR(NETWORKDAYS(J39,M39),0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O39" s="38"/>
       <c r="P39" s="59"/>
@@ -5757,18 +5757,18 @@
         <v>172</v>
       </c>
       <c r="J40" s="54">
-        <f>J39+1</f>
-        <v>45545</v>
+        <f>J39+2</f>
+        <v>45532</v>
       </c>
       <c r="K40" s="54"/>
       <c r="L40" s="54"/>
       <c r="M40" s="54">
-        <f>J40+1</f>
-        <v>45546</v>
+        <f>J40+2</f>
+        <v>45534</v>
       </c>
       <c r="N40" s="38">
         <f>IFERROR(NETWORKDAYS(J40,M40),0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O40" s="38"/>
       <c r="P40" s="59"/>
@@ -5924,7 +5924,7 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J34:J35 J27 M28 J25 J29 J32:J33 M30 M32:M33" formula="1"/>
+    <ignoredError sqref="J34 J27 M28 J25 M30 M32:M34 J29 J32" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -6247,12 +6247,12 @@
       </c>
       <c r="C7" s="60">
         <f>SUMIF(Backlog!$D:$D,sintético!P7,Backlog!$B:$B)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F7" s="22" t="str">
         <f t="shared" ref="F7:F10" si="3">IF(AND($E7&gt;$E$4,$E7&lt;F$4),"DENTRO",IF($E7&gt;=F$4,"OK","FORA"))</f>
@@ -6272,11 +6272,11 @@
       </c>
       <c r="J7" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>DENTRO</v>
+        <v>OK</v>
       </c>
       <c r="K7" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>FORA</v>
+        <v>DENTRO</v>
       </c>
       <c r="L7" s="22" t="str">
         <f>IF(AND(K7="OK",$E7&lt;L$4,$E7&gt;K$4),"DENTRO",IF($E7&gt;=L$4,"OK","FORA"))</f>
@@ -7237,7 +7237,7 @@
       </c>
       <c r="B1" s="61">
         <f ca="1">TODAY()+6</f>
-        <v>45502</v>
+        <v>45505</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="B4">
         <f ca="1">B2-B1</f>
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="B5" s="64">
         <f ca="1">B4-B3</f>
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B7" s="62">
         <f ca="1">B5/B6</f>
-        <v>1.0769230769230769</v>
+        <v>0.84615384615384615</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7367,11 +7367,11 @@
       </c>
       <c r="C3" s="29">
         <f>Backlog!M30</f>
-        <v>45513</v>
+        <v>45509</v>
       </c>
       <c r="D3" s="38">
         <f>C3-Planilha1!B3</f>
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7381,15 +7381,15 @@
       </c>
       <c r="B4" s="29">
         <f>Backlog!J31</f>
-        <v>45516</v>
+        <v>45510</v>
       </c>
       <c r="C4" s="29">
         <f>Backlog!M32</f>
-        <v>45520</v>
+        <v>45512</v>
       </c>
       <c r="D4" s="38">
         <f>C4-Planilha1!B4</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
+++ b/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04255872-5E4B-49D9-99F5-8BDEB628CEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C7956F-C89F-401F-9D48-52D65C3E4DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,7 +717,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="dd/mm\ \-\ ddd"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2639,7 +2639,7 @@
       <selection pane="bottomLeft" activeCell="J12" sqref="I12:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="0.6640625" style="32" customWidth="1"/>
     <col min="3" max="3" width="0.5546875" style="51" customWidth="1"/>
@@ -2661,7 +2661,7 @@
     <col min="19" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="4.3499999999999996" customHeight="1">
+    <row r="1" spans="1:20" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D1" s="74" t="s">
         <v>115</v>
       </c>
@@ -2679,7 +2679,7 @@
       <c r="P1" s="52"/>
       <c r="Q1" s="52"/>
     </row>
-    <row r="2" spans="1:20" ht="3.15" customHeight="1">
+    <row r="2" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D2" s="74"/>
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
@@ -2695,7 +2695,7 @@
       <c r="P2" s="52"/>
       <c r="Q2" s="52"/>
     </row>
-    <row r="3" spans="1:20" ht="3.15" customHeight="1">
+    <row r="3" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -2709,7 +2709,7 @@
       <c r="N3" s="74"/>
       <c r="O3" s="74"/>
     </row>
-    <row r="4" spans="1:20" ht="3.15" customHeight="1">
+    <row r="4" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
@@ -2723,7 +2723,7 @@
       <c r="N4" s="74"/>
       <c r="O4" s="74"/>
     </row>
-    <row r="5" spans="1:20" ht="6.6" customHeight="1">
+    <row r="5" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
@@ -2737,7 +2737,7 @@
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
     </row>
-    <row r="6" spans="1:20" ht="7.2" customHeight="1">
+    <row r="6" spans="1:20" ht="7.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
@@ -2754,7 +2754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="51" customFormat="1" ht="14.4" customHeight="1">
+    <row r="7" spans="1:20" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="D7" s="74"/>
@@ -2773,7 +2773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="7.5" customHeight="1">
+    <row r="8" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="51"/>
       <c r="E8" s="51"/>
       <c r="F8" s="51"/>
@@ -2789,7 +2789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>35</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="58">
         <f t="shared" ref="A10" si="0">IF(H10="-",0,1)</f>
         <v>1</v>
@@ -2884,7 +2884,7 @@
       <c r="Q10" s="25"/>
       <c r="T10" s="59"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="58">
         <f t="shared" ref="A11:A32" si="1">IF(H11="-",0,1)</f>
         <v>1</v>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="T11" s="59"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -2980,7 +2980,7 @@
       </c>
       <c r="T12" s="59"/>
     </row>
-    <row r="13" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="13" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="T13" s="59"/>
     </row>
-    <row r="14" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="14" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="T14" s="59"/>
     </row>
-    <row r="15" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="15" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="58">
         <f t="shared" ref="A15:A28" si="4">IF(H15="-",0,1)</f>
         <v>1</v>
@@ -3121,7 +3121,7 @@
       <c r="P15" s="25"/>
       <c r="T15" s="59"/>
     </row>
-    <row r="16" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="16" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3167,7 +3167,7 @@
       <c r="P16" s="25"/>
       <c r="T16" s="59"/>
     </row>
-    <row r="17" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="17" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3213,7 +3213,7 @@
       <c r="P17" s="25"/>
       <c r="T17" s="59"/>
     </row>
-    <row r="18" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="18" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3259,7 +3259,7 @@
       <c r="P18" s="25"/>
       <c r="T18" s="59"/>
     </row>
-    <row r="19" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="19" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3305,7 +3305,7 @@
       <c r="P19" s="25"/>
       <c r="T19" s="59"/>
     </row>
-    <row r="20" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="20" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3350,7 +3350,7 @@
       <c r="Q20" s="41"/>
       <c r="T20" s="59"/>
     </row>
-    <row r="21" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="21" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3397,7 +3397,7 @@
       <c r="Q21" s="41"/>
       <c r="T21" s="59"/>
     </row>
-    <row r="22" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="22" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3444,7 +3444,7 @@
       <c r="Q22" s="41"/>
       <c r="T22" s="59"/>
     </row>
-    <row r="23" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="23" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3491,7 +3491,7 @@
       <c r="Q23" s="41"/>
       <c r="T23" s="59"/>
     </row>
-    <row r="24" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="24" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3538,7 +3538,7 @@
       <c r="Q24" s="41"/>
       <c r="T24" s="59"/>
     </row>
-    <row r="25" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="25" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3585,7 +3585,7 @@
       <c r="Q25" s="41"/>
       <c r="T25" s="59"/>
     </row>
-    <row r="26" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="26" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3632,7 +3632,7 @@
       <c r="Q26" s="41"/>
       <c r="T26" s="59"/>
     </row>
-    <row r="27" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="27" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3679,7 +3679,7 @@
       <c r="Q27" s="41"/>
       <c r="T27" s="59"/>
     </row>
-    <row r="28" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="28" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3726,7 +3726,7 @@
       <c r="Q28" s="41"/>
       <c r="T28" s="59"/>
     </row>
-    <row r="29" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="29" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3773,7 +3773,7 @@
       <c r="Q29" s="41"/>
       <c r="T29" s="59"/>
     </row>
-    <row r="30" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="30" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3819,7 +3819,7 @@
       <c r="P30" s="59"/>
       <c r="T30" s="59"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3865,7 +3865,7 @@
       <c r="P31" s="59"/>
       <c r="T31" s="59"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3911,7 +3911,7 @@
       <c r="P32" s="59"/>
       <c r="T32" s="59"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="57"/>
       <c r="B33" s="57"/>
       <c r="C33" s="53"/>
@@ -3919,7 +3919,7 @@
       <c r="P33" s="59"/>
       <c r="T33" s="59"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="57"/>
       <c r="B34" s="57"/>
       <c r="C34" s="53"/>
@@ -3927,7 +3927,7 @@
       <c r="P34" s="42"/>
       <c r="T34" s="59"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="57"/>
       <c r="B35" s="57"/>
       <c r="C35" s="53"/>
@@ -3935,7 +3935,7 @@
       <c r="P35" s="42"/>
       <c r="T35" s="59"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="57"/>
       <c r="B36" s="57"/>
       <c r="C36" s="53"/>
@@ -3943,7 +3943,7 @@
       <c r="P36" s="42"/>
       <c r="T36" s="59"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
       <c r="G37" s="30"/>
       <c r="H37" s="30"/>
@@ -3953,7 +3953,7 @@
       <c r="P37" s="42"/>
       <c r="T37" s="59"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="57"/>
       <c r="G38" s="30"/>
       <c r="K38" s="30"/>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="T38" s="59"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="G39" s="30"/>
       <c r="K39" s="30"/>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="T39" s="59"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="57">
         <f>IF(H29="-",0,1)</f>
         <v>1</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="T40" s="59"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="57">
         <f>IF(H30="-",0,1)</f>
         <v>1</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="T41" s="59"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="57">
         <f>IF(H31="-",0,1)</f>
         <v>1</v>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="T42" s="59"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="57">
         <f>IF(H32="-",0,1)</f>
         <v>1</v>
@@ -4135,12 +4135,12 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.5546875" style="32" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" style="32" hidden="1" customWidth="1"/>
@@ -4163,7 +4163,7 @@
     <col min="19" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="4.3499999999999996" customHeight="1">
+    <row r="1" spans="1:20" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D1" s="74" t="s">
         <v>115</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="P1" s="52"/>
       <c r="Q1" s="52"/>
     </row>
-    <row r="2" spans="1:20" ht="3.15" customHeight="1">
+    <row r="2" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="D2" s="74"/>
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
@@ -4197,7 +4197,7 @@
       <c r="P2" s="52"/>
       <c r="Q2" s="52"/>
     </row>
-    <row r="3" spans="1:20" ht="3.15" customHeight="1">
+    <row r="3" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -4211,7 +4211,7 @@
       <c r="N3" s="74"/>
       <c r="O3" s="74"/>
     </row>
-    <row r="4" spans="1:20" ht="3.15" customHeight="1">
+    <row r="4" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
@@ -4225,7 +4225,7 @@
       <c r="N4" s="74"/>
       <c r="O4" s="74"/>
     </row>
-    <row r="5" spans="1:20" ht="6.6" customHeight="1">
+    <row r="5" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
       <c r="F5" s="74"/>
@@ -4239,7 +4239,7 @@
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
     </row>
-    <row r="6" spans="1:20" ht="7.2" customHeight="1">
+    <row r="6" spans="1:20" ht="7.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
@@ -4256,7 +4256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="51" customFormat="1" ht="14.4" customHeight="1">
+    <row r="7" spans="1:20" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="D7" s="74"/>
@@ -4275,7 +4275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="7.5" customHeight="1">
+    <row r="8" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="51" t="s">
         <v>173</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>35</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="58">
         <f t="shared" ref="A10:A40" si="0">IF(H10="-",0,1)</f>
         <v>1</v>
@@ -4389,7 +4389,7 @@
       <c r="Q10" s="25"/>
       <c r="T10" s="59"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="T11" s="59"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4487,7 +4487,7 @@
       </c>
       <c r="T12" s="59"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4531,7 +4531,7 @@
       <c r="P13" s="25"/>
       <c r="T13" s="59"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4575,7 +4575,7 @@
       <c r="P14" s="25"/>
       <c r="T14" s="59"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4619,7 +4619,7 @@
       <c r="P15" s="25"/>
       <c r="T15" s="59"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4663,7 +4663,7 @@
       <c r="P16" s="25"/>
       <c r="T16" s="59"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4707,7 +4707,7 @@
       <c r="P17" s="25"/>
       <c r="T17" s="59"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4751,14 +4751,14 @@
       <c r="P18" s="25"/>
       <c r="T18" s="59"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B19" s="58">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C19" s="53"/>
       <c r="D19" s="26" t="s">
@@ -4774,7 +4774,7 @@
         <v>160</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" s="28" t="s">
         <v>171</v>
@@ -4795,14 +4795,14 @@
       <c r="P19" s="25"/>
       <c r="T19" s="59"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B20" s="58">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C20" s="53"/>
       <c r="D20" s="26" t="s">
@@ -4818,7 +4818,7 @@
         <v>161</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="28" t="s">
         <v>171</v>
@@ -4839,7 +4839,7 @@
       <c r="P20" s="25"/>
       <c r="T20" s="59"/>
     </row>
-    <row r="21" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="21" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4887,14 +4887,14 @@
       </c>
       <c r="T21" s="59"/>
     </row>
-    <row r="22" spans="1:20" ht="10.8" customHeight="1">
+    <row r="22" spans="1:20" ht="10.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B22" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="53"/>
       <c r="D22" s="65" t="s">
@@ -4909,8 +4909,8 @@
       <c r="G22" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="68" t="s">
-        <v>5</v>
+      <c r="H22" s="27" t="s">
+        <v>3</v>
       </c>
       <c r="I22" s="69" t="s">
         <v>172</v>
@@ -4932,11 +4932,11 @@
       <c r="P22" s="25"/>
       <c r="Q22" s="32">
         <f>COUNTIF(Q9,H:H)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="59"/>
     </row>
-    <row r="23" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="23" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4982,7 +4982,7 @@
       <c r="P23" s="25"/>
       <c r="T23" s="59"/>
     </row>
-    <row r="24" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="24" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5028,7 +5028,7 @@
       <c r="P24" s="25"/>
       <c r="T24" s="59"/>
     </row>
-    <row r="25" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="25" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5074,14 +5074,14 @@
       <c r="P25" s="25"/>
       <c r="T25" s="59"/>
     </row>
-    <row r="26" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="26" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B26" s="58">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C26" s="53"/>
       <c r="D26" s="26" t="s">
@@ -5097,7 +5097,7 @@
         <v>132</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" s="28" t="s">
         <v>171</v>
@@ -5120,14 +5120,14 @@
       <c r="P26" s="25"/>
       <c r="T26" s="59"/>
     </row>
-    <row r="27" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="27" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B27" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="53"/>
       <c r="D27" s="26" t="s">
@@ -5143,7 +5143,7 @@
         <v>137</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I27" s="28" t="s">
         <v>171</v>
@@ -5166,14 +5166,14 @@
       <c r="P27" s="25"/>
       <c r="T27" s="59"/>
     </row>
-    <row r="28" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="28" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B28" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C28" s="53"/>
       <c r="D28" s="65" t="s">
@@ -5188,8 +5188,8 @@
       <c r="G28" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="H28" s="68" t="s">
-        <v>5</v>
+      <c r="H28" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="I28" s="69" t="s">
         <v>172</v>
@@ -5213,14 +5213,14 @@
       <c r="Q28" s="41"/>
       <c r="T28" s="59"/>
     </row>
-    <row r="29" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="29" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B29" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C29" s="53"/>
       <c r="D29" s="26" t="s">
@@ -5236,7 +5236,7 @@
         <v>128</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>171</v>
@@ -5260,7 +5260,7 @@
       <c r="Q29" s="41"/>
       <c r="T29" s="59"/>
     </row>
-    <row r="30" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="30" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5307,7 +5307,7 @@
       <c r="Q30" s="41"/>
       <c r="T30" s="59"/>
     </row>
-    <row r="31" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="31" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5354,7 +5354,7 @@
       <c r="Q31" s="41"/>
       <c r="T31" s="59"/>
     </row>
-    <row r="32" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="32" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5401,7 +5401,7 @@
       <c r="Q32" s="41"/>
       <c r="T32" s="59"/>
     </row>
-    <row r="33" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="33" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5448,7 +5448,7 @@
       <c r="Q33" s="41"/>
       <c r="T33" s="59"/>
     </row>
-    <row r="34" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="34" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5495,7 +5495,7 @@
       <c r="Q34" s="41"/>
       <c r="T34" s="59"/>
     </row>
-    <row r="35" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="35" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5542,7 +5542,7 @@
       <c r="Q35" s="41"/>
       <c r="T35" s="59"/>
     </row>
-    <row r="36" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="36" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5589,7 +5589,7 @@
       <c r="Q36" s="41"/>
       <c r="T36" s="59"/>
     </row>
-    <row r="37" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="37" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5636,7 +5636,7 @@
       <c r="Q37" s="41"/>
       <c r="T37" s="59"/>
     </row>
-    <row r="38" spans="1:20" ht="10.199999999999999" customHeight="1">
+    <row r="38" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5682,7 +5682,7 @@
       <c r="P38" s="59"/>
       <c r="T38" s="59"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5728,7 +5728,7 @@
       <c r="P39" s="59"/>
       <c r="T39" s="59"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5774,7 +5774,7 @@
       <c r="P40" s="59"/>
       <c r="T40" s="59"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="57"/>
       <c r="B41" s="57"/>
       <c r="C41" s="53"/>
@@ -5782,7 +5782,7 @@
       <c r="P41" s="59"/>
       <c r="T41" s="59"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="57"/>
       <c r="B42" s="57"/>
       <c r="C42" s="53"/>
@@ -5790,7 +5790,7 @@
       <c r="P42" s="42"/>
       <c r="T42" s="59"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="57"/>
       <c r="B43" s="57"/>
       <c r="C43" s="53"/>
@@ -5798,7 +5798,7 @@
       <c r="P43" s="42"/>
       <c r="T43" s="59"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="57"/>
       <c r="B44" s="57"/>
       <c r="C44" s="53"/>
@@ -5806,7 +5806,7 @@
       <c r="P44" s="42"/>
       <c r="T44" s="59"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="57"/>
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
@@ -5816,7 +5816,7 @@
       <c r="P45" s="42"/>
       <c r="T45" s="59"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="57"/>
       <c r="G46" s="30"/>
       <c r="K46" s="30"/>
@@ -5831,7 +5831,7 @@
       </c>
       <c r="T46" s="59"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="57"/>
       <c r="G47" s="30"/>
       <c r="K47" s="30"/>
@@ -5846,7 +5846,7 @@
       </c>
       <c r="T47" s="59"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="57">
         <f>IF(H37="-",0,1)</f>
         <v>1</v>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="T48" s="59"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="57">
         <f>IF(H38="-",0,1)</f>
         <v>1</v>
@@ -5876,7 +5876,7 @@
       </c>
       <c r="T49" s="59"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="57">
         <f>IF(H39="-",0,1)</f>
         <v>1</v>
@@ -5891,7 +5891,7 @@
       </c>
       <c r="T50" s="59"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="57">
         <f>IF(H40="-",0,1)</f>
         <v>1</v>
@@ -5975,7 +5975,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>H10:H40 H45</xm:sqref>
+          <xm:sqref>H45 H10:H40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6001,20 +6001,20 @@
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="5.0999999999999996" customHeight="1"/>
-    <row r="2" ht="5.0999999999999996" customHeight="1"/>
-    <row r="30" spans="8:8">
+    <row r="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>43299</v>
       </c>
     </row>
-    <row r="31" spans="8:8">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>43312</v>
       </c>
@@ -6036,7 +6036,7 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.5546875" style="14" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="3.21875" style="14" hidden="1" customWidth="1"/>
@@ -6052,7 +6052,7 @@
     <col min="18" max="16384" width="3.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="6" customHeight="1">
+    <row r="1" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
@@ -6083,7 +6083,7 @@
       <c r="P2" s="77"/>
       <c r="Q2" s="77"/>
     </row>
-    <row r="3" spans="1:17" ht="22.65" customHeight="1">
+    <row r="3" spans="1:17" ht="22.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
@@ -6101,7 +6101,7 @@
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
     </row>
-    <row r="4" spans="1:17" s="14" customFormat="1" ht="17.399999999999999">
+    <row r="4" spans="1:17" s="14" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="E4" s="13">
         <v>1E-3</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="P4" s="40"/>
       <c r="Q4" s="40"/>
     </row>
-    <row r="5" spans="1:17" ht="18.899999999999999" customHeight="1">
+    <row r="5" spans="1:17" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="24" t="s">
         <v>6</v>
       </c>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="Q5" s="75"/>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P6)</f>
@@ -6185,12 +6185,12 @@
       </c>
       <c r="C6" s="60">
         <f>SUMIF(Backlog!$D:$D,sintético!P6,Backlog!$B:$B)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="11">
         <f t="shared" ref="E6:E10" si="0">C6/B6</f>
-        <v>0.90909090909090906</v>
+        <v>1</v>
       </c>
       <c r="F6" s="39" t="str">
         <f>IF(AND($E6&gt;$E$4,$E6&lt;F$4),"DENTRO",IF($E6&gt;=F$4,"OK","FORA"))</f>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="O6" s="39" t="str">
         <f t="shared" si="2"/>
-        <v>DENTRO</v>
+        <v>OK</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>103</v>
@@ -6239,7 +6239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P7)</f>
@@ -6247,12 +6247,12 @@
       </c>
       <c r="C7" s="60">
         <f>SUMIF(Backlog!$D:$D,sintético!P7,Backlog!$B:$B)</f>
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="F7" s="22" t="str">
         <f t="shared" ref="F7:F10" si="3">IF(AND($E7&gt;$E$4,$E7&lt;F$4),"DENTRO",IF($E7&gt;=F$4,"OK","FORA"))</f>
@@ -6276,23 +6276,23 @@
       </c>
       <c r="K7" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>DENTRO</v>
+        <v>OK</v>
       </c>
       <c r="L7" s="22" t="str">
         <f>IF(AND(K7="OK",$E7&lt;L$4,$E7&gt;K$4),"DENTRO",IF($E7&gt;=L$4,"OK","FORA"))</f>
-        <v>FORA</v>
+        <v>OK</v>
       </c>
       <c r="M7" s="22" t="str">
         <f>IF(AND(L7="OK",$E7&lt;M$4,$E7&gt;L$4),"DENTRO",IF($E7&gt;=M$4,"OK","FORA"))</f>
-        <v>FORA</v>
+        <v>OK</v>
       </c>
       <c r="N7" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>FORA</v>
+        <v>OK</v>
       </c>
       <c r="O7" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>FORA</v>
+        <v>DENTRO</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>104</v>
@@ -6301,7 +6301,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P8)</f>
@@ -6309,20 +6309,20 @@
       </c>
       <c r="C8" s="60">
         <f>SUMIF(Backlog!$D:$D,sintético!P8,Backlog!$B:$B)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="60"/>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F8" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>FORA</v>
+        <v>OK</v>
       </c>
       <c r="G8" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>FORA</v>
+        <v>DENTRO</v>
       </c>
       <c r="H8" s="22" t="str">
         <f t="shared" si="2"/>
@@ -6363,7 +6363,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P9)</f>
@@ -6425,7 +6425,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P10)</f>
@@ -6487,7 +6487,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14">
         <f>SUMIFS(Backlog_old!$A:$A,Backlog_old!$D:$D,sintético!#REF!)</f>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14">
         <f>SUMIFS(Backlog_old!$A:$A,Backlog_old!$D:$D,sintético!#REF!)</f>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14">
         <f>SUMIFS(Backlog_old!$A:$A,Backlog_old!$D:$D,sintético!#REF!)</f>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -6540,7 +6540,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -6557,7 +6557,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -6574,7 +6574,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -6591,7 +6591,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -6608,7 +6608,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -6625,7 +6625,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -6642,7 +6642,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -6661,7 +6661,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -6680,7 +6680,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -6699,7 +6699,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -6718,7 +6718,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -6737,7 +6737,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -6756,7 +6756,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -6775,7 +6775,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -6794,7 +6794,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="29" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -6813,7 +6813,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="30" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -6832,7 +6832,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -6851,7 +6851,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -6870,7 +6870,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -6889,7 +6889,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="34" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6908,7 +6908,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="35" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6927,7 +6927,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -6946,7 +6946,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="37" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -6965,7 +6965,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="38" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -6984,7 +6984,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="39" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -7003,7 +7003,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="40" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -7022,7 +7022,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="41" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -7041,7 +7041,7 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="42" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -7060,7 +7060,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="43" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -7079,7 +7079,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="44" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -7098,7 +7098,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="45" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -7117,7 +7117,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="46" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -7136,7 +7136,7 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="47" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -7155,7 +7155,7 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="48" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -7172,7 +7172,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1">
+    <row r="49" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -7225,22 +7225,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="61">
         <f ca="1">TODAY()+6</f>
-        <v>45505</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -7256,25 +7256,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>147</v>
       </c>
       <c r="B4">
         <f ca="1">B2-B1</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>148</v>
       </c>
       <c r="B5" s="64">
         <f ca="1">B4-B3</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -7282,16 +7282,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>150</v>
       </c>
       <c r="B7" s="62">
         <f ca="1">B5/B6</f>
-        <v>0.84615384615384615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.46153846153846156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -7331,14 +7331,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="str">
         <f>Backlog_old!F10</f>
         <v>Design e Modelagem de Dados</v>
@@ -7356,7 +7356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="str">
         <f>Backlog_old!F13</f>
         <v>Desenvolvimento e Implementação</v>
@@ -7374,7 +7374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="str">
         <f>Backlog_old!F31</f>
         <v>Implantação</v>
@@ -7392,31 +7392,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="38"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="38"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="38"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="38"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -7446,7 +7446,7 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
@@ -7454,7 +7454,7 @@
     <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>40</v>
       </c>
@@ -7464,19 +7464,19 @@
       <c r="C1" s="45"/>
       <c r="D1" s="46"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="46"/>
       <c r="B2" s="47"/>
       <c r="C2" s="45"/>
       <c r="D2" s="46"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="46"/>
       <c r="B3" s="47"/>
       <c r="C3" s="45"/>
       <c r="D3" s="46"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="46"/>
       <c r="B4" s="47"/>
       <c r="C4" s="48" t="s">
@@ -7486,7 +7486,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="45" t="s">
@@ -7496,13 +7496,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="46"/>
       <c r="B6" s="47"/>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="46"/>
       <c r="B7" s="47"/>
       <c r="C7" s="48" t="s">
@@ -7512,7 +7512,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="46"/>
       <c r="B8" s="47"/>
       <c r="C8" s="45" t="str">
@@ -7523,13 +7523,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="46"/>
       <c r="B9" s="47"/>
       <c r="C9" s="50"/>
       <c r="D9" s="50"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48" t="s">
@@ -7539,7 +7539,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="46"/>
       <c r="B11" s="47"/>
       <c r="C11" s="45" t="s">
@@ -7549,25 +7549,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="46"/>
       <c r="B12" s="47"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="46"/>
       <c r="B13" s="47"/>
       <c r="C13" s="45"/>
       <c r="D13" s="46"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="46"/>
       <c r="B14" s="47"/>
       <c r="C14" s="45"/>
       <c r="D14" s="46"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="48" t="s">
@@ -7577,7 +7577,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
         <v>48</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>50</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
         <v>52</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
         <v>54</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
         <v>56</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
         <v>56</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
         <v>60</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="45"/>
@@ -7716,7 +7716,7 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
@@ -7726,7 +7726,7 @@
     <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>136002</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>136002</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>136002</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>136001</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>136001</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>136001</v>
       </c>
@@ -7900,7 +7900,7 @@
       <selection activeCell="B4" sqref="B4:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.5546875" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
@@ -7911,7 +7911,7 @@
     <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
@@ -7928,12 +7928,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>31</v>
       </c>
@@ -8008,14 +8008,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="20"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C13" s="20"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C14" s="20"/>
     </row>
   </sheetData>

--- a/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
+++ b/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C7956F-C89F-401F-9D48-52D65C3E4DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825FCBC3-29F0-446D-A830-B8BC3F362AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog_old" sheetId="1" state="hidden" r:id="rId1"/>
@@ -717,7 +717,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="dd/mm\ \-\ ddd"/>
   </numFmts>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,6 +1036,22 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1278,7 +1294,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1502,6 +1518,12 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2639,29 +2661,29 @@
       <selection pane="bottomLeft" activeCell="J12" sqref="I12:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="0.6640625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="0.5546875" style="51" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="0.7109375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="0.5703125" style="51" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="99.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="99.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="32" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="25"/>
+    <col min="19" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="74" t="s">
         <v>115</v>
       </c>
@@ -2679,7 +2701,7 @@
       <c r="P1" s="52"/>
       <c r="Q1" s="52"/>
     </row>
-    <row r="2" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D2" s="74"/>
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
@@ -2695,7 +2717,7 @@
       <c r="P2" s="52"/>
       <c r="Q2" s="52"/>
     </row>
-    <row r="3" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -2709,7 +2731,7 @@
       <c r="N3" s="74"/>
       <c r="O3" s="74"/>
     </row>
-    <row r="4" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
@@ -2737,7 +2759,7 @@
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
     </row>
-    <row r="6" spans="1:20" ht="7.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
@@ -2754,7 +2776,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="51" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="D7" s="74"/>
@@ -2980,7 +3002,7 @@
       </c>
       <c r="T12" s="59"/>
     </row>
-    <row r="13" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3028,7 +3050,7 @@
       </c>
       <c r="T13" s="59"/>
     </row>
-    <row r="14" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3076,7 +3098,7 @@
       </c>
       <c r="T14" s="59"/>
     </row>
-    <row r="15" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="58">
         <f t="shared" ref="A15:A28" si="4">IF(H15="-",0,1)</f>
         <v>1</v>
@@ -3121,7 +3143,7 @@
       <c r="P15" s="25"/>
       <c r="T15" s="59"/>
     </row>
-    <row r="16" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3167,7 +3189,7 @@
       <c r="P16" s="25"/>
       <c r="T16" s="59"/>
     </row>
-    <row r="17" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3213,7 +3235,7 @@
       <c r="P17" s="25"/>
       <c r="T17" s="59"/>
     </row>
-    <row r="18" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3259,7 +3281,7 @@
       <c r="P18" s="25"/>
       <c r="T18" s="59"/>
     </row>
-    <row r="19" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3305,7 +3327,7 @@
       <c r="P19" s="25"/>
       <c r="T19" s="59"/>
     </row>
-    <row r="20" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3350,7 +3372,7 @@
       <c r="Q20" s="41"/>
       <c r="T20" s="59"/>
     </row>
-    <row r="21" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3397,7 +3419,7 @@
       <c r="Q21" s="41"/>
       <c r="T21" s="59"/>
     </row>
-    <row r="22" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3444,7 +3466,7 @@
       <c r="Q22" s="41"/>
       <c r="T22" s="59"/>
     </row>
-    <row r="23" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3491,7 +3513,7 @@
       <c r="Q23" s="41"/>
       <c r="T23" s="59"/>
     </row>
-    <row r="24" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3538,7 +3560,7 @@
       <c r="Q24" s="41"/>
       <c r="T24" s="59"/>
     </row>
-    <row r="25" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3585,7 +3607,7 @@
       <c r="Q25" s="41"/>
       <c r="T25" s="59"/>
     </row>
-    <row r="26" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3632,7 +3654,7 @@
       <c r="Q26" s="41"/>
       <c r="T26" s="59"/>
     </row>
-    <row r="27" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3679,7 +3701,7 @@
       <c r="Q27" s="41"/>
       <c r="T27" s="59"/>
     </row>
-    <row r="28" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3726,7 +3748,7 @@
       <c r="Q28" s="41"/>
       <c r="T28" s="59"/>
     </row>
-    <row r="29" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3773,7 +3795,7 @@
       <c r="Q29" s="41"/>
       <c r="T29" s="59"/>
     </row>
-    <row r="30" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4137,33 +4159,33 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" style="32" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" style="32" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="32" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="32" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="51" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.88671875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.21875" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.85546875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" style="32" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="25"/>
+    <col min="19" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D1" s="74" t="s">
         <v>115</v>
       </c>
@@ -4181,7 +4203,7 @@
       <c r="P1" s="52"/>
       <c r="Q1" s="52"/>
     </row>
-    <row r="2" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D2" s="74"/>
       <c r="E2" s="74"/>
       <c r="F2" s="74"/>
@@ -4197,7 +4219,7 @@
       <c r="P2" s="52"/>
       <c r="Q2" s="52"/>
     </row>
-    <row r="3" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -4211,7 +4233,7 @@
       <c r="N3" s="74"/>
       <c r="O3" s="74"/>
     </row>
-    <row r="4" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="74"/>
       <c r="E4" s="74"/>
       <c r="F4" s="74"/>
@@ -4239,7 +4261,7 @@
       <c r="N5" s="74"/>
       <c r="O5" s="74"/>
     </row>
-    <row r="6" spans="1:20" ht="7.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="74"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
@@ -4256,7 +4278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="51" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="D7" s="74"/>
@@ -4839,7 +4861,7 @@
       <c r="P20" s="25"/>
       <c r="T20" s="59"/>
     </row>
-    <row r="21" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4887,7 +4909,7 @@
       </c>
       <c r="T21" s="59"/>
     </row>
-    <row r="22" spans="1:20" ht="10.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4936,7 +4958,7 @@
       </c>
       <c r="T22" s="59"/>
     </row>
-    <row r="23" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4982,7 +5004,7 @@
       <c r="P23" s="25"/>
       <c r="T23" s="59"/>
     </row>
-    <row r="24" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5028,7 +5050,7 @@
       <c r="P24" s="25"/>
       <c r="T24" s="59"/>
     </row>
-    <row r="25" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5074,7 +5096,7 @@
       <c r="P25" s="25"/>
       <c r="T25" s="59"/>
     </row>
-    <row r="26" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5120,7 +5142,7 @@
       <c r="P26" s="25"/>
       <c r="T26" s="59"/>
     </row>
-    <row r="27" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5166,7 +5188,7 @@
       <c r="P27" s="25"/>
       <c r="T27" s="59"/>
     </row>
-    <row r="28" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5213,14 +5235,14 @@
       <c r="Q28" s="41"/>
       <c r="T28" s="59"/>
     </row>
-    <row r="29" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B29" s="58">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C29" s="53"/>
       <c r="D29" s="26" t="s">
@@ -5236,7 +5258,7 @@
         <v>128</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>171</v>
@@ -5260,14 +5282,14 @@
       <c r="Q29" s="41"/>
       <c r="T29" s="59"/>
     </row>
-    <row r="30" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B30" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="26" t="s">
@@ -5283,7 +5305,7 @@
         <v>135</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>171</v>
@@ -5307,7 +5329,7 @@
       <c r="Q30" s="41"/>
       <c r="T30" s="59"/>
     </row>
-    <row r="31" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5354,7 +5376,7 @@
       <c r="Q31" s="41"/>
       <c r="T31" s="59"/>
     </row>
-    <row r="32" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5401,7 +5423,7 @@
       <c r="Q32" s="41"/>
       <c r="T32" s="59"/>
     </row>
-    <row r="33" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5448,7 +5470,7 @@
       <c r="Q33" s="41"/>
       <c r="T33" s="59"/>
     </row>
-    <row r="34" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5495,7 +5517,7 @@
       <c r="Q34" s="41"/>
       <c r="T34" s="59"/>
     </row>
-    <row r="35" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5542,7 +5564,7 @@
       <c r="Q35" s="41"/>
       <c r="T35" s="59"/>
     </row>
-    <row r="36" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5589,7 +5611,7 @@
       <c r="Q36" s="41"/>
       <c r="T36" s="59"/>
     </row>
-    <row r="37" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5636,7 +5658,7 @@
       <c r="Q37" s="41"/>
       <c r="T37" s="59"/>
     </row>
-    <row r="38" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5809,7 +5831,7 @@
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="57"/>
       <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
+      <c r="H45" s="78"/>
       <c r="K45" s="30"/>
       <c r="L45" s="30"/>
       <c r="O45" s="38"/>
@@ -5881,6 +5903,7 @@
         <f>IF(H39="-",0,1)</f>
         <v>1</v>
       </c>
+      <c r="H50" s="79"/>
       <c r="O50" s="38"/>
       <c r="P50" s="42"/>
       <c r="Q50" s="51" t="s">
@@ -6001,20 +6024,20 @@
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H30">
         <v>43299</v>
       </c>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H31">
         <v>43312</v>
       </c>
@@ -6036,23 +6059,23 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="14" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="3.21875" style="14" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="5.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="5.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" style="14" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="14" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" style="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5703125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="3.109375" style="2"/>
+    <col min="18" max="16384" width="3.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -6060,7 +6083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
@@ -6083,7 +6106,7 @@
       <c r="P2" s="77"/>
       <c r="Q2" s="77"/>
     </row>
-    <row r="3" spans="1:17" ht="22.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
@@ -6101,7 +6124,7 @@
       <c r="P3" s="77"/>
       <c r="Q3" s="77"/>
     </row>
-    <row r="4" spans="1:17" s="14" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E4" s="13">
         <v>1E-3</v>
       </c>
@@ -6138,7 +6161,7 @@
       <c r="P4" s="40"/>
       <c r="Q4" s="40"/>
     </row>
-    <row r="5" spans="1:17" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="24" t="s">
         <v>6</v>
       </c>
@@ -6177,7 +6200,7 @@
       </c>
       <c r="Q5" s="75"/>
     </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
       <c r="B6" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P6)</f>
@@ -6239,7 +6262,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P7)</f>
@@ -6301,7 +6324,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P8)</f>
@@ -6309,12 +6332,12 @@
       </c>
       <c r="C8" s="60">
         <f>SUMIF(Backlog!$D:$D,sintético!P8,Backlog!$B:$B)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="60"/>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="F8" s="22" t="str">
         <f t="shared" si="3"/>
@@ -6322,11 +6345,11 @@
       </c>
       <c r="G8" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>DENTRO</v>
+        <v>OK</v>
       </c>
       <c r="H8" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>FORA</v>
+        <v>DENTRO</v>
       </c>
       <c r="I8" s="22" t="str">
         <f t="shared" si="2"/>
@@ -6363,7 +6386,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P9)</f>
@@ -6425,7 +6448,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P10)</f>
@@ -6487,7 +6510,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="14">
         <f>SUMIFS(Backlog_old!$A:$A,Backlog_old!$D:$D,sintético!#REF!)</f>
@@ -6499,7 +6522,7 @@
       </c>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="14">
         <f>SUMIFS(Backlog_old!$A:$A,Backlog_old!$D:$D,sintético!#REF!)</f>
@@ -6511,7 +6534,7 @@
       </c>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="14">
         <f>SUMIFS(Backlog_old!$A:$A,Backlog_old!$D:$D,sintético!#REF!)</f>
@@ -6523,7 +6546,7 @@
       </c>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -6540,7 +6563,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -6557,7 +6580,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -6574,7 +6597,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -6591,7 +6614,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -6608,7 +6631,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -6625,7 +6648,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -6642,7 +6665,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -6661,7 +6684,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -6680,7 +6703,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -6699,7 +6722,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -6718,7 +6741,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -6737,7 +6760,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -6756,7 +6779,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -6775,7 +6798,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -6794,7 +6817,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -6813,7 +6836,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -6832,7 +6855,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -6851,7 +6874,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -6870,7 +6893,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -6889,7 +6912,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6908,7 +6931,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6927,7 +6950,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -6946,7 +6969,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -6965,7 +6988,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -6984,7 +7007,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -7003,7 +7026,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -7022,7 +7045,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -7041,7 +7064,7 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -7060,7 +7083,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -7079,7 +7102,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -7098,7 +7121,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -7117,7 +7140,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -7136,7 +7159,7 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -7155,7 +7178,7 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -7172,7 +7195,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -7225,13 +7248,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>144</v>
       </c>
@@ -7240,7 +7263,7 @@
         <v>45510</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -7248,7 +7271,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -7256,7 +7279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -7265,7 +7288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -7274,7 +7297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -7282,7 +7305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -7291,7 +7314,7 @@
         <v>0.46153846153846156</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -7300,7 +7323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -7309,7 +7332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -7331,14 +7354,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="str">
         <f>Backlog_old!F10</f>
         <v>Design e Modelagem de Dados</v>
@@ -7356,7 +7379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="str">
         <f>Backlog_old!F13</f>
         <v>Desenvolvimento e Implementação</v>
@@ -7374,7 +7397,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="str">
         <f>Backlog_old!F31</f>
         <v>Implantação</v>
@@ -7392,31 +7415,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="31"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="38"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="38"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="38"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="38"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -7446,15 +7469,15 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>40</v>
       </c>
@@ -7464,19 +7487,19 @@
       <c r="C1" s="45"/>
       <c r="D1" s="46"/>
     </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
       <c r="B2" s="47"/>
       <c r="C2" s="45"/>
       <c r="D2" s="46"/>
     </row>
-    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="47"/>
       <c r="C3" s="45"/>
       <c r="D3" s="46"/>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="47"/>
       <c r="C4" s="48" t="s">
@@ -7486,7 +7509,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="45" t="s">
@@ -7496,13 +7519,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
       <c r="B6" s="47"/>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="47"/>
       <c r="C7" s="48" t="s">
@@ -7512,7 +7535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
       <c r="B8" s="47"/>
       <c r="C8" s="45" t="str">
@@ -7523,13 +7546,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="46"/>
       <c r="B9" s="47"/>
       <c r="C9" s="50"/>
       <c r="D9" s="50"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48" t="s">
@@ -7539,7 +7562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="47"/>
       <c r="C11" s="45" t="s">
@@ -7549,25 +7572,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="47"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
     </row>
-    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
       <c r="B13" s="47"/>
       <c r="C13" s="45"/>
       <c r="D13" s="46"/>
     </row>
-    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="46"/>
       <c r="B14" s="47"/>
       <c r="C14" s="45"/>
       <c r="D14" s="46"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="48" t="s">
@@ -7577,7 +7600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="46" t="s">
         <v>48</v>
       </c>
@@ -7592,7 +7615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="46" t="s">
         <v>50</v>
       </c>
@@ -7607,7 +7630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
         <v>52</v>
       </c>
@@ -7622,7 +7645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
         <v>54</v>
       </c>
@@ -7637,7 +7660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
         <v>56</v>
       </c>
@@ -7652,7 +7675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
         <v>56</v>
       </c>
@@ -7666,7 +7689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
         <v>60</v>
       </c>
@@ -7681,7 +7704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="45"/>
@@ -7716,17 +7739,17 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -7749,7 +7772,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>136002</v>
       </c>
@@ -7772,7 +7795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>136002</v>
       </c>
@@ -7795,7 +7818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>136002</v>
       </c>
@@ -7818,7 +7841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>136001</v>
       </c>
@@ -7841,7 +7864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>136001</v>
       </c>
@@ -7864,7 +7887,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>136001</v>
       </c>
@@ -7900,18 +7923,18 @@
       <selection activeCell="B4" sqref="B4:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
@@ -7928,12 +7951,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
@@ -7944,7 +7967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
@@ -7952,7 +7975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
@@ -7960,7 +7983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
@@ -7968,7 +7991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
@@ -7976,7 +7999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
@@ -7984,7 +8007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
@@ -7992,7 +8015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
@@ -8000,7 +8023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>31</v>
       </c>
@@ -8008,14 +8031,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="20"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" s="20"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
     </row>
   </sheetData>

--- a/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
+++ b/Documentos/Demais Documentos do Projeto/Backlog do Produto - DW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\04 - PROJETOS\DW\Data-Warehouse\Documentos\Demais Documentos do Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825FCBC3-29F0-446D-A830-B8BC3F362AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDD2F2E-6F81-4B1D-8996-6AFE09610E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog_old" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1507,6 +1507,12 @@
     <xf numFmtId="166" fontId="33" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1518,12 +1524,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2661,136 +2661,136 @@
       <selection pane="bottomLeft" activeCell="J12" sqref="I12:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="0.7109375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="0.5703125" style="51" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="0.6640625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="0.5546875" style="51" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="99.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="99.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="32" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="25"/>
+    <col min="19" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="74" t="s">
+    <row r="1" spans="1:20" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D1" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
       <c r="P1" s="52"/>
       <c r="Q1" s="52"/>
     </row>
-    <row r="2" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
+    <row r="2" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
       <c r="P2" s="52"/>
       <c r="Q2" s="52"/>
     </row>
-    <row r="3" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-    </row>
-    <row r="4" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
+    <row r="3" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+    </row>
+    <row r="4" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-    </row>
-    <row r="6" spans="1:20" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+    </row>
+    <row r="6" spans="1:20" ht="7.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
       <c r="Q6" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="51" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
       <c r="Q7" s="51" t="s">
         <v>3</v>
       </c>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="T12" s="59"/>
     </row>
-    <row r="13" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="T13" s="59"/>
     </row>
-    <row r="14" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="T14" s="59"/>
     </row>
-    <row r="15" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="58">
         <f t="shared" ref="A15:A28" si="4">IF(H15="-",0,1)</f>
         <v>1</v>
@@ -3143,7 +3143,7 @@
       <c r="P15" s="25"/>
       <c r="T15" s="59"/>
     </row>
-    <row r="16" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3189,7 +3189,7 @@
       <c r="P16" s="25"/>
       <c r="T16" s="59"/>
     </row>
-    <row r="17" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3235,7 +3235,7 @@
       <c r="P17" s="25"/>
       <c r="T17" s="59"/>
     </row>
-    <row r="18" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3281,7 +3281,7 @@
       <c r="P18" s="25"/>
       <c r="T18" s="59"/>
     </row>
-    <row r="19" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3327,7 +3327,7 @@
       <c r="P19" s="25"/>
       <c r="T19" s="59"/>
     </row>
-    <row r="20" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3372,7 +3372,7 @@
       <c r="Q20" s="41"/>
       <c r="T20" s="59"/>
     </row>
-    <row r="21" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3419,7 +3419,7 @@
       <c r="Q21" s="41"/>
       <c r="T21" s="59"/>
     </row>
-    <row r="22" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3466,7 +3466,7 @@
       <c r="Q22" s="41"/>
       <c r="T22" s="59"/>
     </row>
-    <row r="23" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3513,7 +3513,7 @@
       <c r="Q23" s="41"/>
       <c r="T23" s="59"/>
     </row>
-    <row r="24" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3560,7 +3560,7 @@
       <c r="Q24" s="41"/>
       <c r="T24" s="59"/>
     </row>
-    <row r="25" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3607,7 +3607,7 @@
       <c r="Q25" s="41"/>
       <c r="T25" s="59"/>
     </row>
-    <row r="26" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3654,7 +3654,7 @@
       <c r="Q26" s="41"/>
       <c r="T26" s="59"/>
     </row>
-    <row r="27" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3701,7 +3701,7 @@
       <c r="Q27" s="41"/>
       <c r="T27" s="59"/>
     </row>
-    <row r="28" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="58">
         <f t="shared" si="4"/>
         <v>1</v>
@@ -3748,7 +3748,7 @@
       <c r="Q28" s="41"/>
       <c r="T28" s="59"/>
     </row>
-    <row r="29" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3795,7 +3795,7 @@
       <c r="Q29" s="41"/>
       <c r="T29" s="59"/>
     </row>
-    <row r="30" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="58">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -4159,140 +4159,140 @@
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomLeft" activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="32" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="32" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" style="32" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" style="32" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="51" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.85546875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.88671875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="32" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="25"/>
+    <col min="19" max="16384" width="9.109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="74" t="s">
+    <row r="1" spans="1:20" ht="4.3499999999999996" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D1" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
       <c r="P1" s="52"/>
       <c r="Q1" s="52"/>
     </row>
-    <row r="2" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
+    <row r="2" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
       <c r="P2" s="52"/>
       <c r="Q2" s="52"/>
     </row>
-    <row r="3" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-    </row>
-    <row r="4" spans="1:20" ht="3.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
+    <row r="3" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+    </row>
+    <row r="4" spans="1:20" ht="3.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="1:20" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-    </row>
-    <row r="6" spans="1:20" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+    </row>
+    <row r="6" spans="1:20" ht="7.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
       <c r="Q6" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="51" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
       <c r="Q7" s="51" t="s">
         <v>3</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="P20" s="25"/>
       <c r="T20" s="59"/>
     </row>
-    <row r="21" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="T21" s="59"/>
     </row>
-    <row r="22" spans="1:20" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="T22" s="59"/>
     </row>
-    <row r="23" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5004,7 +5004,7 @@
       <c r="P23" s="25"/>
       <c r="T23" s="59"/>
     </row>
-    <row r="24" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5050,7 +5050,7 @@
       <c r="P24" s="25"/>
       <c r="T24" s="59"/>
     </row>
-    <row r="25" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5096,7 +5096,7 @@
       <c r="P25" s="25"/>
       <c r="T25" s="59"/>
     </row>
-    <row r="26" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5142,7 +5142,7 @@
       <c r="P26" s="25"/>
       <c r="T26" s="59"/>
     </row>
-    <row r="27" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5188,7 +5188,7 @@
       <c r="P27" s="25"/>
       <c r="T27" s="59"/>
     </row>
-    <row r="28" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5235,7 +5235,7 @@
       <c r="Q28" s="41"/>
       <c r="T28" s="59"/>
     </row>
-    <row r="29" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5282,14 +5282,14 @@
       <c r="Q29" s="41"/>
       <c r="T29" s="59"/>
     </row>
-    <row r="30" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B30" s="58">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C30" s="53"/>
       <c r="D30" s="26" t="s">
@@ -5305,7 +5305,7 @@
         <v>135</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>171</v>
@@ -5329,14 +5329,14 @@
       <c r="Q30" s="41"/>
       <c r="T30" s="59"/>
     </row>
-    <row r="31" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B31" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C31" s="53"/>
       <c r="D31" s="26" t="s">
@@ -5352,7 +5352,7 @@
         <v>133</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>171</v>
@@ -5376,14 +5376,14 @@
       <c r="Q31" s="41"/>
       <c r="T31" s="59"/>
     </row>
-    <row r="32" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B32" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C32" s="53"/>
       <c r="D32" s="26" t="s">
@@ -5399,7 +5399,7 @@
         <v>134</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>171</v>
@@ -5423,7 +5423,7 @@
       <c r="Q32" s="41"/>
       <c r="T32" s="59"/>
     </row>
-    <row r="33" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5470,7 +5470,7 @@
       <c r="Q33" s="41"/>
       <c r="T33" s="59"/>
     </row>
-    <row r="34" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5517,7 +5517,7 @@
       <c r="Q34" s="41"/>
       <c r="T34" s="59"/>
     </row>
-    <row r="35" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5564,7 +5564,7 @@
       <c r="Q35" s="41"/>
       <c r="T35" s="59"/>
     </row>
-    <row r="36" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5611,7 +5611,7 @@
       <c r="Q36" s="41"/>
       <c r="T36" s="59"/>
     </row>
-    <row r="37" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5658,7 +5658,7 @@
       <c r="Q37" s="41"/>
       <c r="T37" s="59"/>
     </row>
-    <row r="38" spans="1:20" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="58">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -5831,7 +5831,7 @@
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="57"/>
       <c r="G45" s="30"/>
-      <c r="H45" s="78"/>
+      <c r="H45" s="74"/>
       <c r="K45" s="30"/>
       <c r="L45" s="30"/>
       <c r="O45" s="38"/>
@@ -5903,7 +5903,7 @@
         <f>IF(H39="-",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H50" s="79"/>
+      <c r="H50" s="75"/>
       <c r="O50" s="38"/>
       <c r="P50" s="42"/>
       <c r="Q50" s="51" t="s">
@@ -6024,20 +6024,20 @@
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>43299</v>
       </c>
     </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>43312</v>
       </c>
@@ -6059,23 +6059,23 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" style="14" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="14" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="1.5703125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" style="14" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="14" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="14" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="1.5546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="5.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="3.140625" style="2"/>
+    <col min="18" max="16384" width="3.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
@@ -6083,48 +6083,48 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-    </row>
-    <row r="3" spans="1:17" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+    </row>
+    <row r="3" spans="1:17" ht="22.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-    </row>
-    <row r="4" spans="1:17" s="14" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+    </row>
+    <row r="4" spans="1:17" s="14" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="E4" s="13">
         <v>1E-3</v>
       </c>
@@ -6161,7 +6161,7 @@
       <c r="P4" s="40"/>
       <c r="Q4" s="40"/>
     </row>
-    <row r="5" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E5" s="24" t="s">
         <v>6</v>
       </c>
@@ -6195,12 +6195,12 @@
       <c r="O5" s="23">
         <v>100</v>
       </c>
-      <c r="P5" s="75" t="s">
+      <c r="P5" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="75"/>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="77"/>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P6)</f>
@@ -6262,7 +6262,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P7)</f>
@@ -6324,7 +6324,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P8)</f>
@@ -6332,12 +6332,12 @@
       </c>
       <c r="C8" s="60">
         <f>SUMIF(Backlog!$D:$D,sintético!P8,Backlog!$B:$B)</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D8" s="60"/>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="F8" s="22" t="str">
         <f t="shared" si="3"/>
@@ -6349,11 +6349,11 @@
       </c>
       <c r="H8" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>DENTRO</v>
+        <v>OK</v>
       </c>
       <c r="I8" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>FORA</v>
+        <v>DENTRO</v>
       </c>
       <c r="J8" s="22" t="str">
         <f t="shared" si="2"/>
@@ -6386,7 +6386,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P9)</f>
@@ -6448,7 +6448,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="60">
         <f>SUMIFS(Backlog!$A:$A,Backlog!$D:$D,sintético!P10)</f>
@@ -6510,7 +6510,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14">
         <f>SUMIFS(Backlog_old!$A:$A,Backlog_old!$D:$D,sintético!#REF!)</f>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14">
         <f>SUMIFS(Backlog_old!$A:$A,Backlog_old!$D:$D,sintético!#REF!)</f>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14">
         <f>SUMIFS(Backlog_old!$A:$A,Backlog_old!$D:$D,sintético!#REF!)</f>
@@ -6546,7 +6546,7 @@
       </c>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -6563,7 +6563,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -6580,7 +6580,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -6597,7 +6597,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -6614,7 +6614,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -6631,7 +6631,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -6648,7 +6648,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -6665,7 +6665,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -6684,7 +6684,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -6703,7 +6703,7 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -6722,7 +6722,7 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -6741,7 +6741,7 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -6760,7 +6760,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -6779,7 +6779,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -6798,7 +6798,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -6817,7 +6817,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -6836,7 +6836,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -6855,7 +6855,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -6874,7 +6874,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -6893,7 +6893,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -6912,7 +6912,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -6931,7 +6931,7 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -6950,7 +6950,7 @@
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -6969,7 +6969,7 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -6988,7 +6988,7 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -7007,7 +7007,7 @@
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -7026,7 +7026,7 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -7045,7 +7045,7 @@
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -7064,7 +7064,7 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -7083,7 +7083,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -7102,7 +7102,7 @@
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -7121,7 +7121,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -7140,7 +7140,7 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -7159,7 +7159,7 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -7178,7 +7178,7 @@
       <c r="P47" s="9"/>
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" spans="1:17" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -7195,7 +7195,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -7248,22 +7248,22 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="61">
         <f ca="1">TODAY()+6</f>
-        <v>45510</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>45534</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -7279,25 +7279,25 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>147</v>
       </c>
       <c r="B4">
         <f ca="1">B2-B1</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>148</v>
       </c>
       <c r="B5" s="64">
         <f ca="1">B4-B3</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -7305,16 +7305,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>150</v>
       </c>
       <c r="B7" s="62">
         <f ca="1">B5/B6</f>
-        <v>0.46153846153846156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -7323,7 +7323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -7354,14 +7354,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="str">
         <f>Backlog_old!F10</f>
         <v>Design e Modelagem de Dados</v>
@@ -7379,7 +7379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="str">
         <f>Backlog_old!F13</f>
         <v>Desenvolvimento e Implementação</v>
@@ -7397,7 +7397,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="str">
         <f>Backlog_old!F31</f>
         <v>Implantação</v>
@@ -7415,31 +7415,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
       <c r="D5" s="38"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="31"/>
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="38"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
       <c r="B7" s="29"/>
       <c r="C7" s="29"/>
       <c r="D7" s="38"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="38"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -7469,15 +7469,15 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>40</v>
       </c>
@@ -7487,19 +7487,19 @@
       <c r="C1" s="45"/>
       <c r="D1" s="46"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="46"/>
       <c r="B2" s="47"/>
       <c r="C2" s="45"/>
       <c r="D2" s="46"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="46"/>
       <c r="B3" s="47"/>
       <c r="C3" s="45"/>
       <c r="D3" s="46"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="46"/>
       <c r="B4" s="47"/>
       <c r="C4" s="48" t="s">
@@ -7509,7 +7509,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="45" t="s">
@@ -7519,13 +7519,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="46"/>
       <c r="B6" s="47"/>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="46"/>
       <c r="B7" s="47"/>
       <c r="C7" s="48" t="s">
@@ -7535,7 +7535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="46"/>
       <c r="B8" s="47"/>
       <c r="C8" s="45" t="str">
@@ -7546,13 +7546,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="46"/>
       <c r="B9" s="47"/>
       <c r="C9" s="50"/>
       <c r="D9" s="50"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48" t="s">
@@ -7562,7 +7562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="46"/>
       <c r="B11" s="47"/>
       <c r="C11" s="45" t="s">
@@ -7572,25 +7572,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="46"/>
       <c r="B12" s="47"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="46"/>
       <c r="B13" s="47"/>
       <c r="C13" s="45"/>
       <c r="D13" s="46"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="46"/>
       <c r="B14" s="47"/>
       <c r="C14" s="45"/>
       <c r="D14" s="46"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="48" t="s">
@@ -7600,7 +7600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
         <v>48</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="s">
         <v>50</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
         <v>52</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
         <v>54</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="s">
         <v>56</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="s">
         <v>56</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="s">
         <v>60</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="45"/>
@@ -7739,17 +7739,17 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>136002</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>136002</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>136002</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>136001</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>136001</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>136001</v>
       </c>
@@ -7923,18 +7923,18 @@
       <selection activeCell="B4" sqref="B4:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
@@ -7951,12 +7951,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
         <v>10</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
         <v>12</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
         <v>31</v>
       </c>
@@ -8031,14 +8031,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="18"/>
       <c r="C12" s="20"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C13" s="20"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C14" s="20"/>
     </row>
   </sheetData>
